--- a/data/windfarminfo.xlsx
+++ b/data/windfarminfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linaabedisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linaabedisa/Documents/GitHub/AMO-Single-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C3BF3D-BCE2-1647-867A-463D7D72A7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C54A91-B8C2-4040-AC6D-93DAF3282E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30540" yWindow="1300" windowWidth="27440" windowHeight="15400" xr2:uid="{144CEEFF-2E02-5F48-9601-A7944E10CAFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -53,43 +53,13 @@
     <t>wf1</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>120.54</t>
-  </si>
-  <si>
     <t>wf2</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>115.52</t>
-  </si>
-  <si>
     <t>wf3</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>53.34</t>
-  </si>
-  <si>
     <t>wf4</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>38.16</t>
   </si>
 </sst>
 </file>
@@ -125,9 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -445,7 +417,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,14 +445,14 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>500</v>
+      </c>
+      <c r="D2" s="2">
+        <v>120.54</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -490,16 +462,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>500</v>
+      </c>
+      <c r="D3" s="2">
+        <v>115.52</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -509,16 +481,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>300</v>
+      </c>
+      <c r="D4" s="2">
+        <v>53.34</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -528,16 +500,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <v>300</v>
+      </c>
+      <c r="D5" s="2">
+        <v>38.159999999999997</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
